--- a/Finish_factor.xlsx
+++ b/Finish_factor.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr. Sun\Documents\GitHub\dayu\dayu-factor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5957133-4872-4FC0-A2C0-7C1260DD1E02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Formula</t>
   </si>
@@ -97,27 +103,59 @@
     <t>['EMA3']</t>
   </si>
   <si>
-    <t>对数成交量的1天差与当天涨跌幅的过去6天相关系数</t>
-  </si>
-  <si>
     <t>ZZ800</t>
   </si>
   <si>
-    <t>[1, 6]</t>
-  </si>
-  <si>
-    <t>价量类</t>
+    <t>[60]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 13]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60, 60,60]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未预期盈余（Standardized unexpected earnings）</t>
+  </si>
+  <si>
+    <t>60日乖离率，简称Y值，是移动平均原理派生的一项技术指标，表示股价偏离趋向指标斩百分比值。</t>
+  </si>
+  <si>
+    <t>LossVariance60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIX5_J</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日收盘价三重指数平滑移动平均指标（Triple Exponentially Smoothed Average）</t>
+  </si>
+  <si>
+    <t>60日损失方差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,8 +163,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,22 +217,98 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -222,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +375,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +427,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,14 +620,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="74.625" customWidth="1"/>
+    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -513,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -522,22 +686,22 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -557,10 +721,10 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -569,12 +733,12 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -592,24 +756,24 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -627,22 +791,23 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>